--- a/data/Subset1_WithDialogActs/Video Mosaic 11th grade pizza 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic 11th grade pizza 2.xlsx_with_dialog_acts.xlsx
@@ -615,12 +615,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -759,12 +759,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3573,12 +3573,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4077,12 +4077,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4187,12 +4187,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
